--- a/NEW HR/NUÑEZ, RUBEN JACOB.xlsx
+++ b/NEW HR/NUÑEZ, RUBEN JACOB.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>01/22,29/2024</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1196,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1359,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.9169999999999998</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1360,7 +1369,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9.9169999999999998</v>
+        <v>10.417</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1625,14 +1634,20 @@
       <c r="A22" s="24">
         <v>45291</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="9"/>
@@ -1661,19 +1676,27 @@
       <c r="A24" s="24">
         <v>45322</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="9"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H24" s="12"/>
+      <c r="G24" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="12">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
